--- a/biology/Médecine/Artère_gastroduodénale/Artère_gastroduodénale.xlsx
+++ b/biology/Médecine/Artère_gastroduodénale/Artère_gastroduodénale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_gastroduod%C3%A9nale</t>
+          <t>Artère_gastroduodénale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère gastroduodénale est une artère issue de la division de l'artère hépatique commune. Elle approvisionne en sang oxygéné une partie de l'estomac, du duodénum et du pancréas.
 Elle chemine en arrière du pylore et se divise en deux branches :
